--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2524605.902998517</v>
+        <v>2628785.537449588</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>90.50519121882219</v>
+        <v>270.486856930786</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414548</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>83.96848495489189</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>218.5495062926533</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>84.34466057911509</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>290.4167982937687</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>117.7126336312588</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>114.3606976213218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196.6522795239231</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>114.4233678789979</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>145.9481824713052</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>87.93270968653189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1421,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>105.5373371683566</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0.6197054599894091</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15319674220952</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>12.96996784159906</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>78.14939830226166</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>179.4744566894665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2290,19 +2292,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>158.1862028292484</v>
       </c>
       <c r="U22" t="n">
-        <v>139.188673966789</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>117.4665281367401</v>
+        <v>106.8299898147634</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>94.3037379180827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.207068174442684</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>112.760686031999</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>137.7610225486951</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3430,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0.6197054599889589</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>104.795004917596</v>
       </c>
       <c r="C40" t="n">
-        <v>48.85497112745813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>252.4188248364706</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>47.84205650382022</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204826</v>
+        <v>2232.598233480555</v>
       </c>
       <c r="C2" t="n">
-        <v>1681.836054204826</v>
+        <v>1863.635716540143</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.570355598076</v>
+        <v>1505.370017933393</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204826</v>
+        <v>2619.198073544677</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4427,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.4359021818237</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>444.4359021818237</v>
+        <v>287.2691934954696</v>
       </c>
       <c r="W4" t="n">
-        <v>444.4359021818237</v>
+        <v>287.2691934954696</v>
       </c>
       <c r="X4" t="n">
-        <v>444.4359021818237</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.4359021818237</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2701.192632958763</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>2327.726874697683</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>2327.726874697683</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="6">
@@ -4638,28 +4640,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877106</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133541</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133541</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133541</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>182.0279726153368</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3099.73599366253</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3099.73599366253</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>3099.73599366253</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2746.967338392416</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2373.501580131336</v>
       </c>
       <c r="Y8" t="n">
-        <v>2158.017852261502</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4878,19 +4880,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,28 +4901,28 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>459.1732937329032</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>311.2602001505101</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>311.2602001505101</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>832.0660869429007</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>610.2994715124267</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1966046380703</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218343</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>609.2899331452389</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5115,16 +5117,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
         <v>1344.266747951537</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.644273983533</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2090.45917461044</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1801.383947954638</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1546.699459748751</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1257.28228971179</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1029.292738813773</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813773</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2598873597757</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309963</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>943.510265746755</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373307</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>869.6905094135296</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2333.297989183966</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2333.297989183966</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.222762528164</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.538274322277</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.131553387299</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.338974243769</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>776.466420735098</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>776.466420735098</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>628.5533271527049</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>481.6633796547945</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>314.4672803696745</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>172.7554492118726</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.459739407057</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.667160263527</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,13 +5740,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5774,19 +5776,19 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L21" t="n">
-        <v>2726.91413360155</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M21" t="n">
-        <v>3324.292621228102</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N21" t="n">
-        <v>3715.300272664238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>801.6605733532804</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2037.2785022257</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.866460342035</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.866460342035</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W22" t="n">
-        <v>1547.449290305074</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X22" t="n">
-        <v>1319.459739407057</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3090381835201</v>
       </c>
     </row>
     <row r="23">
@@ -5969,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362671</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797041</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2565.513299557012</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>2565.513299557012</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636078</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X25" t="n">
-        <v>3642.838752636078</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y25" t="n">
-        <v>3524.185693912098</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6238,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2951.54259528685</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>2782.606412358944</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2632.489772946608</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2484.576679364215</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U28" t="n">
-        <v>4126.074848401485</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V28" t="n">
-        <v>3871.390360195598</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>3581.973190158637</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>3353.98363926062</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>3133.19106011709</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2445.743822797996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2445.743822797996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6688,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153953</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328842</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122955</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085995</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>3677.229491085995</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>3456.436911942465</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.838905772771</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399323</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>4267.210002903526</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4267.210002903526</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3194.624135499466</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159224</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4369.156388614101</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4369.156388614101</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>4114.471900408214</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3825.054730371254</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X37" t="n">
-        <v>3597.065179473236</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.272600329706</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1540.888753373306</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>464.5051450557705</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7639,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E46" t="n">
-        <v>365.9405071576786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>365.9405071576786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
   </sheetData>
@@ -9422,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.8681131589317</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>285.9032928766016</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>134.8730892594351</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.7396875474381</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.11643801630386</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>46.23519869957062</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>59.21924749803989</v>
       </c>
       <c r="U22" t="n">
-        <v>146.9958004224551</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>101.1181252153547</v>
+        <v>111.7546635373314</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>15.00954930701832</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>191.8807364711614</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.16817853567898</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>67.07129414993832</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>10.85445046951727</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>146.3469868924068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>75.03697526434127</v>
       </c>
       <c r="C40" t="n">
-        <v>118.3918499711697</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.76564955277351</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>117.6820817884486</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>100.7734165143926</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
@@ -26323,37 +26325,37 @@
         <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="O2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.7441040525</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687962</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687966</v>
@@ -26457,7 +26459,7 @@
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016115</v>
+        <v>-873442.0145016116</v>
       </c>
       <c r="C6" t="n">
         <v>455302.7312259809</v>
@@ -26528,40 +26530,40 @@
         <v>455302.731225981</v>
       </c>
       <c r="E6" t="n">
-        <v>203745.6481138631</v>
+        <v>203745.6481138628</v>
       </c>
       <c r="F6" t="n">
         <v>529158.1099212184</v>
       </c>
       <c r="G6" t="n">
+        <v>529158.1099212186</v>
+      </c>
+      <c r="H6" t="n">
+        <v>529158.1099212184</v>
+      </c>
+      <c r="I6" t="n">
+        <v>529158.1099212186</v>
+      </c>
+      <c r="J6" t="n">
+        <v>311626.9075239404</v>
+      </c>
+      <c r="K6" t="n">
         <v>529158.1099212181</v>
       </c>
-      <c r="H6" t="n">
-        <v>529158.1099212182</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>529158.1099212179</v>
+      </c>
+      <c r="M6" t="n">
+        <v>444103.0819857063</v>
+      </c>
+      <c r="N6" t="n">
         <v>529158.1099212184</v>
-      </c>
-      <c r="J6" t="n">
-        <v>311626.907523941</v>
-      </c>
-      <c r="K6" t="n">
-        <v>529158.1099212185</v>
-      </c>
-      <c r="L6" t="n">
-        <v>529158.1099212186</v>
-      </c>
-      <c r="M6" t="n">
-        <v>444103.0819857065</v>
-      </c>
-      <c r="N6" t="n">
-        <v>529158.1099212185</v>
       </c>
       <c r="O6" t="n">
         <v>529158.1099212182</v>
       </c>
       <c r="P6" t="n">
-        <v>529158.1099212184</v>
+        <v>529158.1099212182</v>
       </c>
     </row>
   </sheetData>
@@ -26707,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>291.4251788534396</v>
+        <v>111.4435131414758</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>83.27833614373594</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>7.160149096383861</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>280.9282311918925</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>58.82417042364432</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>101.8363156449104</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.2239557307729</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>186.0815621395575</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>89.49460226062229</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>20.07762578772298</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>101.83631564491</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,19 +31837,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>307.9814458135821</v>
       </c>
       <c r="M12" t="n">
-        <v>567.5882829286707</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>145.7021085929663</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868571</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561987</v>
+        <v>302.5540177178166</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>669.5976799347659</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>355.4083096598242</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>448.9178583921318</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>707.690770008912</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N36" t="n">
-        <v>746.485762087579</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2529048371025</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>271.1474903386687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>169.427066033708</v>
       </c>
       <c r="M12" t="n">
-        <v>425.4542490066523</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.86448192629965</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728654</v>
+        <v>171.2123056344833</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>527.4636460127475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>213.2742757378059</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>314.9434509778015</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>576.3490579255787</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N36" t="n">
-        <v>615.1440500042457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>471.1188709150841</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>128.5512458942243</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2628785.537449588</v>
+        <v>2624772.927435594</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>270.486856930786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>43.83162758969848</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>218.5495062926533</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>84.34466057911509</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>303.5173063788893</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.08802744677315</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>117.7126336312588</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699557</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>114.4233678789979</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>145.9481824713052</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>203.7029035467952</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6197054599894091</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>12.96996784159906</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>78.14939830226166</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>158.1862028292484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.8299898147634</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.36569740310337</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>101.6969570046971</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>137.7610225486951</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6197054599889589</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.795004917596</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.4286493356916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>124.9362388746445</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2232.598233480555</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="C2" t="n">
-        <v>1863.635716540143</v>
+        <v>1311.909787855439</v>
       </c>
       <c r="D2" t="n">
-        <v>1505.370017933393</v>
+        <v>953.6440892486883</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>567.855836650444</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,37 +4345,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2619.198073544677</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
@@ -4412,43 +4412,43 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218343</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>287.2691934954696</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>287.2691934954696</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.138951213863</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1127.748203495405</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4591,28 +4591,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.138951213863</v>
+        <v>1514.348043559527</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>610.2994715124267</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>321.1966046380703</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288091</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898465</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>541.107849900239</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452355</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3099.73599366253</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3099.73599366253</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3099.73599366253</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2746.967338392416</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2373.501580131336</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4880,19 +4880,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,25 +4904,25 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>609.2899331452389</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>609.2899331452389</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>459.1732937329032</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>311.2602001505101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>311.2602001505101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>609.2899331452389</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.2899331452389</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
@@ -5126,19 +5126,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
         <v>402.7245934908938</v>
@@ -5193,10 +5193,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,55 +5412,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5478,10 +5478,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>776.466420735098</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>628.5533271527049</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>481.6633796547945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>314.4672803696745</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>172.7554492118726</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5776,25 +5776,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468472</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532804</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253735</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253735</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2037.2785022257</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1748.203275569898</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1493.518787364011</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1204.10161732705</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3090381835201</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,19 +6600,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>196.5408620426154</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6694,25 +6694,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6967,7 +6967,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7019,25 +7019,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>701.3802915967227</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>551.263652184387</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>403.3505586019938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>615.644930552589</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>615.644930552589</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1018.085974526359</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>797.2933953828287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W13" t="n">
-        <v>285.9032928766016</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.11643801630386</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>59.21924749803989</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>111.7546635373314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>38.5977558415268</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>10.85445046951727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.03697526434127</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.40333084624569</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>100.7734165143926</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="16">
@@ -26316,31 +26316,31 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914267</v>
-      </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
       </c>
       <c r="E2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520047</v>
@@ -26349,13 +26349,13 @@
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405249</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.7441040525</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
-      </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687962</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
@@ -26444,22 +26444,22 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
-        <v>15436.64000687962</v>
-      </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016116</v>
+        <v>-873442.0145016117</v>
       </c>
       <c r="C6" t="n">
+        <v>455302.7312259811</v>
+      </c>
+      <c r="D6" t="n">
         <v>455302.7312259809</v>
       </c>
-      <c r="D6" t="n">
-        <v>455302.731225981</v>
-      </c>
       <c r="E6" t="n">
-        <v>203745.6481138628</v>
+        <v>203398.2688595061</v>
       </c>
       <c r="F6" t="n">
-        <v>529158.1099212184</v>
+        <v>528810.7306668612</v>
       </c>
       <c r="G6" t="n">
-        <v>529158.1099212186</v>
+        <v>528810.7306668609</v>
       </c>
       <c r="H6" t="n">
-        <v>529158.1099212184</v>
+        <v>528810.7306668609</v>
       </c>
       <c r="I6" t="n">
-        <v>529158.1099212186</v>
+        <v>528810.7306668612</v>
       </c>
       <c r="J6" t="n">
-        <v>311626.9075239404</v>
+        <v>311279.5282695833</v>
       </c>
       <c r="K6" t="n">
-        <v>529158.1099212181</v>
+        <v>528810.7306668609</v>
       </c>
       <c r="L6" t="n">
-        <v>529158.1099212179</v>
+        <v>528810.7306668609</v>
       </c>
       <c r="M6" t="n">
-        <v>444103.0819857063</v>
+        <v>443755.7027313492</v>
       </c>
       <c r="N6" t="n">
-        <v>529158.1099212184</v>
+        <v>528810.7306668611</v>
       </c>
       <c r="O6" t="n">
-        <v>529158.1099212182</v>
+        <v>528810.7306668611</v>
       </c>
       <c r="P6" t="n">
-        <v>529158.1099212182</v>
+        <v>528810.7306668612</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783846e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111.4435131414758</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>363.044418152013</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>7.160149096383861</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>280.9282311918925</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>103.3587393628221</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351641</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>101.8363156449104</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>277.2566436803249</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>89.49460226062229</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>20.07762578772298</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980529956</v>
       </c>
     </row>
     <row r="11">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31846,22 +31846,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>307.9814458135821</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868571</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>302.5540177178166</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32727,13 +32727,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33739,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,10 +33970,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>169.427066033708</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>171.2123056344833</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,13 +36375,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2624772.927435594</v>
+        <v>2626533.457738379</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>43.83162758969848</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -797,7 +797,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494252</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>66.76195975981818</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>303.5173063788893</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>17.35112070699557</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467952</v>
+        <v>81.4608434426853</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>75.2135622723823</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.909787855439</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C2" t="n">
-        <v>1311.909787855439</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>953.6440892486883</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>567.855836650444</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,7 +4330,7 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810562</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4354,10 +4354,10 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
         <v>3009.337405520489</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
         <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218343</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1127.748203495405</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C5" t="n">
-        <v>1127.748203495405</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.748203495405</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1127.748203495405</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4567,52 +4567,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y5" t="n">
-        <v>1514.348043559527</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218343</v>
@@ -4725,52 +4725,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181855</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835253</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288091</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898465</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>541.107849900239</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>126.0353997452355</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899375</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>376.7853475753374</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>148.7957966773201</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5032,31 +5032,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,22 +5217,22 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
         <v>1491.508541327549</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6208,40 +6208,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578602</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6445,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6469,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="32">
@@ -6694,19 +6694,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6718,16 +6718,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7785,22 +7785,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658016</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781427.9248658014</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781427.9248658016</v>
+        <v>781427.9248658015</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>781427.9248658015</v>
+        <v>781427.9248658014</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="D2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914267</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="L2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26447,7 +26447,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>15436.6400068797</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873442.0145016117</v>
+        <v>-873442.0145016116</v>
       </c>
       <c r="C6" t="n">
-        <v>455302.7312259811</v>
+        <v>455302.7312259809</v>
       </c>
       <c r="D6" t="n">
-        <v>455302.7312259809</v>
+        <v>455302.731225981</v>
       </c>
       <c r="E6" t="n">
-        <v>203398.2688595061</v>
+        <v>203710.9101884268</v>
       </c>
       <c r="F6" t="n">
-        <v>528810.7306668612</v>
+        <v>529123.3719957826</v>
       </c>
       <c r="G6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="H6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="I6" t="n">
-        <v>528810.7306668612</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="J6" t="n">
-        <v>311279.5282695833</v>
+        <v>311592.1695985047</v>
       </c>
       <c r="K6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957825</v>
       </c>
       <c r="L6" t="n">
-        <v>528810.7306668609</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="M6" t="n">
-        <v>443755.7027313492</v>
+        <v>444068.3440602703</v>
       </c>
       <c r="N6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957822</v>
       </c>
       <c r="O6" t="n">
-        <v>528810.7306668611</v>
+        <v>529123.3719957824</v>
       </c>
       <c r="P6" t="n">
-        <v>528810.7306668612</v>
+        <v>529123.3719957822</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683918</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>363.044418152013</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351641</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>193.8557877999644</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>298.5109320111894</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>103.3587393628221</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351641</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>277.2566436803249</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980529956</v>
+        <v>137.1238099094095</v>
       </c>
     </row>
     <row r="11">
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32259,7 +32259,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32733,7 +32733,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
